--- a/data/trans_camb/P18_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,62</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,99</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,02</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-19,33</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,41</t>
+          <t>29,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-23,88</t>
+          <t>23,5</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-14,51</t>
+          <t>27,67</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-13,57</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>16,48</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,84</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13,39</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,68</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,5; -7,33</t>
+          <t>8,4; 28,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 0,75</t>
+          <t>-2,68; 19,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 6,36</t>
+          <t>-8,12; 15,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 5,93</t>
+          <t>-4,56; 18,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,65; -19,19</t>
+          <t>-19,02; 9,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,39; -8,98</t>
+          <t>-17,48; 10,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -14,47</t>
+          <t>19,14; 39,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 2,14</t>
+          <t>8,92; 29,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,97; -15,79</t>
+          <t>13,58; 34,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-22,23; -5,98</t>
+          <t>15,8; 37,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-21,29; -5,27</t>
+          <t>-13,93; 10,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 0,59</t>
+          <t>3,43; 29,08</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 31,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 20,8</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 21,44</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 23,78</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 5,62</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 14,64</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-42,25%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,94%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,75%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-40,9%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,34%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-33,25%</t>
+          <t>111,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>68,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-41,19%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>104,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-23,4%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>46,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>56,09%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30,56%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>31,86%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>39,69%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-5,65%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,49; -18,36</t>
+          <t>12,88; 57,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 2,25</t>
+          <t>-4,15; 38,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 16,07</t>
+          <t>-12,99; 30,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 15,5</t>
+          <t>-7,63; 36,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -27,04</t>
+          <t>-26,99; 17,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,62; -12,69</t>
+          <t>-26,07; 19,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,77; -20,89</t>
+          <t>61,12; 186,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 2,9</t>
+          <t>28,34; 146,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,91; -28,46</t>
+          <t>43,03; 159,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-35,89; -11,39</t>
+          <t>49,84; 182,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-34,88; -9,72</t>
+          <t>-23,66; 22,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 0,79</t>
+          <t>8,08; 99,84</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33,05; 83,13</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 55,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 57,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>17,69; 62,49</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-19,8; 10,48</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 33,02</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,34</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,08</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>20,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,14</t>
+          <t>22,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-15,78</t>
+          <t>16,35</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-12,3</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>15,44</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12,07</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,6</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,48</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 2,21</t>
+          <t>-2,56; 23,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 8,03</t>
+          <t>-9,34; 14,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 8,87</t>
+          <t>-8,7; 14,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 19,13</t>
+          <t>-22,74; 9,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -10,12</t>
+          <t>-13,83; 21,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -13,49</t>
+          <t>-12,96; 16,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,66; -7,66</t>
+          <t>7,76; 29,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,74; -5,27</t>
+          <t>12,7; 31,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -6,96</t>
+          <t>6,35; 25,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -4,31</t>
+          <t>9,34; 29,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -1,44</t>
+          <t>-13,14; 9,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 3,37</t>
+          <t>-6,75; 14,77</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 23,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 19,77</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 17,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 16,55</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 13,27</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 12,7</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,4%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>-6,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,21%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,54%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,73%</t>
+          <t>54,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-32,32%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-25,18%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-20,7%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30,16%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 7,89</t>
+          <t>-3,29; 41,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 27,33</t>
+          <t>-13,05; 25,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 29,27</t>
+          <t>-12,66; 26,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 67,14</t>
+          <t>-32,97; 16,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,63; -16,98</t>
+          <t>-20,33; 44,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,8; -23,32</t>
+          <t>-19,67; 31,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,6; -12,81</t>
+          <t>17,68; 90,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,23; -8,62</t>
+          <t>31,05; 102,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,16; -14,9</t>
+          <t>15,78; 81,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-37,87; -10,38</t>
+          <t>19,91; 92,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-33,69; -3,17</t>
+          <t>-20,01; 17,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 7,75</t>
+          <t>-12,22; 31,17</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 50,45</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 41,6</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 38,71</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-5,26; 35,23</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-13,4; 24,79</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-9,52; 25,12</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,71</t>
+          <t>16,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,34</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-26,68</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,5</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-20,13</t>
+          <t>25,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,8</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-20,83</t>
+          <t>19,87</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>22,76</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-16,69</t>
+          <t>-12,41</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-5,44</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20,83</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13,82</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,51</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>14,03</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-6,36</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-4,58</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,51; -2,9</t>
+          <t>7,07; 26,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -1,45</t>
+          <t>1,5; 20,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,56; -3,15</t>
+          <t>4,17; 22,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 1,31</t>
+          <t>-5,2; 15,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -18,53</t>
+          <t>-10,87; 10,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -10,47</t>
+          <t>-13,01; 6,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,08; -13,5</t>
+          <t>17,74; 32,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -7,25</t>
+          <t>9,45; 24,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-27,38; -13,56</t>
+          <t>12,69; 27,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -7,75</t>
+          <t>14,99; 30,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-22,07; -10,49</t>
+          <t>-21,1; -3,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-18,15; -5,03</t>
+          <t>-15,12; 3,08</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 27,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 19,95</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 22,52</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 20,57</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-13,73; 0,23</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 2,18</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-36,65%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,86%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,23%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,56%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,91%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-32,11%</t>
+          <t>67,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,19%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-40,39%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-27,32%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>-20,66%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-23,76%</t>
+          <t>-10,24%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>43,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>34,08%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>28,97%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-10,18%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,14; -7,86</t>
+          <t>10,8; 48,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,42; -3,5</t>
+          <t>2,41; 37,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,17; -7,69</t>
+          <t>6,38; 42,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 4,02</t>
+          <t>-7,84; 27,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,63; -32,27</t>
+          <t>-15,39; 18,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,31; -17,7</t>
+          <t>-18,48; 10,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -22,03</t>
+          <t>43,73; 96,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,74; -12,62</t>
+          <t>22,78; 73,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,39; -27,22</t>
+          <t>31,01; 81,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-36,01; -15,85</t>
+          <t>36,75; 94,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -22,28</t>
+          <t>-33,56; -6,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-34,1; -10,62</t>
+          <t>-26,27; 5,92</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>28,01; 60,56</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>15,48; 44,54</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>20,31; 49,9</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 45,93</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 0,25</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-17,49; 3,72</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,67</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,05</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>18,85</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,74</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,79</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,63</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-7,3</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,98; -0,13</t>
+          <t>-0,23; 16,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 9,14</t>
+          <t>-8,5; 8,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 9,07</t>
+          <t>-9,57; 8,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 20,58</t>
+          <t>-6,19; 10,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,46; -10,86</t>
+          <t>-18,55; 0,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -7,93</t>
+          <t>-6,32; 13,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -3,95</t>
+          <t>10,23; 25,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 6,29</t>
+          <t>6,91; 21,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -9,04</t>
+          <t>3,36; 17,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -1,74</t>
+          <t>6,0; 21,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,09</t>
+          <t>-15,13; 2,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 9,36</t>
+          <t>-3,85; 14,76</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 19,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 13,61</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 11,57</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 14,13</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; -1,07</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 10,68</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,3%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-32,2%</t>
+          <t>-13,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,64%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-29,66%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-16,21%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-11,5%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-12,19%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,49; -0,13</t>
+          <t>-0,28; 26,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 29,46</t>
+          <t>-12,42; 14,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 29,47</t>
+          <t>-13,83; 14,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,31; 66,61</t>
+          <t>-9,07; 17,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,81; -19,71</t>
+          <t>-26,48; 0,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,13; -13,76</t>
+          <t>-10,52; 27,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -6,91</t>
+          <t>24,24; 72,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 10,79</t>
+          <t>16,21; 61,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,14; -19,78</t>
+          <t>7,86; 51,15</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-25,76; -3,77</t>
+          <t>13,92; 60,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-22,6; -0,31</t>
+          <t>-26,84; 4,99</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 20,36</t>
+          <t>-8,64; 40,44</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 40,56</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 28,31</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 23,88</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 29,52</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-22,22; -1,84</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 23,54</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-13,7</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-12,84</t>
+          <t>-13,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-12,99</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>12,87</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-12,55</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,81; -4,95</t>
+          <t>4,15; 21,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 2,15</t>
+          <t>-2,77; 14,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 3,37</t>
+          <t>-3,97; 13,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 20,09</t>
+          <t>-3,42; 14,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -3,24</t>
+          <t>-22,77; -3,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 5,26</t>
+          <t>-7,92; 13,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 8,93</t>
+          <t>4,1; 22,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 9,62</t>
+          <t>-4,57; 13,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -6,35</t>
+          <t>-8,86; 9,9</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 1,27</t>
+          <t>-1,61; 18,75</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 4,28</t>
+          <t>-22,42; -3,06</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 12,04</t>
+          <t>-12,72; 6,45</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 18,84</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 11,01</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 8,87</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 13,93</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-19,24; -4,31</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 7,64</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-37,46%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,76%</t>
+          <t>-18,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-27,25%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>-24,34%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>-7,34%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-21,11%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -15,62</t>
+          <t>6,21; 37,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 6,54</t>
+          <t>-4,07; 24,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 10,86</t>
+          <t>-5,73; 23,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 62,78</t>
+          <t>-4,87; 25,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,12; -5,91</t>
+          <t>-31,2; -5,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 9,49</t>
+          <t>-13,22; 28,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 16,34</t>
+          <t>8,98; 62,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 17,81</t>
+          <t>-10,24; 36,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,4; -15,05</t>
+          <t>-19,11; 27,04</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 2,87</t>
+          <t>-3,72; 51,41</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 9,52</t>
+          <t>-39,98; -6,38</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 27,06</t>
+          <t>-28,42; 17,93</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>10,83; 38,64</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 23,32</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 18,09</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 28,4</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-31,11; -8,01</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 17,94</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-10,5</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>6,04</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-9,25</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-7,82</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 5,41</t>
+          <t>-4,55; 17,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 7,29</t>
+          <t>-6,48; 15,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 5,43</t>
+          <t>-5,39; 14,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 4,1</t>
+          <t>-0,09; 20,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 2,87</t>
+          <t>-19,53; 4,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 12,64</t>
+          <t>-13,91; 8,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 10,55</t>
+          <t>-4,81; 14,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 7,81</t>
+          <t>-11,63; 5,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 0,31</t>
+          <t>-11,76; 6,51</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 6,78</t>
+          <t>-8,59; 13,32</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 5,43</t>
+          <t>-20,62; 3,52</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 3,36</t>
+          <t>-22,4; 1,92</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 12,84</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 7,61</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 7,61</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 13,52</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; -1,35</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; 1,77</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-18,32%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-14,29%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-17,78%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-11,84%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-13,87%</t>
+          <t>-8,04%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>-21,69%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-15,56%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-13,48%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 17,79</t>
+          <t>-6,46; 29,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 24,64</t>
+          <t>-9,07; 26,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 17,19</t>
+          <t>-7,95; 24,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 13,14</t>
+          <t>-0,02; 33,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 5,38</t>
+          <t>-24,04; 5,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 24,45</t>
+          <t>-18,68; 12,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 20,3</t>
+          <t>-9,61; 36,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 14,76</t>
+          <t>-23,86; 13,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 0,61</t>
+          <t>-24,69; 16,04</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 14,75</t>
+          <t>-17,84; 31,35</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 12,34</t>
+          <t>-39,62; 8,49</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 7,64</t>
+          <t>-41,28; 4,86</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 25,36</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 15,61</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 14,74</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 26,74</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-29,42; -2,31</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-26,93; 3,04</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-18,89</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-12,02</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>18,07</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-15,6</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-8,97</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>15,19</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>8,66</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>9,94</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-6,57</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -7,88</t>
+          <t>7,96; 16,37</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -1,77</t>
+          <t>1,47; 9,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,11</t>
+          <t>1,06; 9,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,64</t>
+          <t>-0,78; 8,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-22,75; -15,36</t>
+          <t>-10,54; -0,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -8,5</t>
+          <t>-5,01; 4,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-15,42; -7,91</t>
+          <t>14,28; 21,71</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -3,21</t>
+          <t>8,28; 14,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -12,56</t>
+          <t>6,97; 14,14</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -6,25</t>
+          <t>11,11; 18,78</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -5,27</t>
+          <t>-11,76; -3,57</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -0,77</t>
+          <t>-4,92; 4,3</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 17,99</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 11,51</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 10,83</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 13,28</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; -3,23</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 3,02</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-32,26%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-30,58%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-19,45%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-18,62%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-31,17%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-16,95%</t>
+          <t>-14,47%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-10,98%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-0,47%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,85; -21,79</t>
+          <t>12,4; 27,41</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,5; -4,7</t>
+          <t>2,02; 16,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -3,16</t>
+          <t>1,73; 15,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 16,47</t>
+          <t>-1,22; 14,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -25,43</t>
+          <t>-15,25; -0,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,63; -14,29</t>
+          <t>-7,81; 8,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -12,96</t>
+          <t>35,06; 59,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-18,07; -5,29</t>
+          <t>20,87; 40,86</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,18; -26,06</t>
+          <t>17,89; 39,64</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,87</t>
+          <t>27,68; 51,71</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -10,97</t>
+          <t>-21,2; -6,91</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -1,27</t>
+          <t>-10,14; 9,84</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>24,26; 37,31</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>11,66; 23,77</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 22,46</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 27,36</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; -5,62</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 5,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
